--- a/Data/apicases.xlsx
+++ b/Data/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="8784" windowWidth="18431"/>
+    <workbookView activeTab="9" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="10425" windowWidth="24300"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,12 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="25">
     <font>
       <name val="等线"/>
@@ -72,37 +67,24 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -123,6 +105,34 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -132,37 +142,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -177,17 +158,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +175,21 @@
       <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,7 +218,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,31 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,109 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +451,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -482,8 +525,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,201 +548,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="8" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="11" fillId="18" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="8" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="8" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="28" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,11 +1040,11 @@
       <selection activeCell="A1" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="16.8796296296296"/>
+    <col customWidth="1" max="3" min="3" width="16.8833333333333"/>
     <col customWidth="1" max="4" min="4" width="7.5"/>
-    <col customWidth="1" max="5" min="5" width="14.3796296296296"/>
+    <col customWidth="1" max="5" min="5" width="14.3833333333333"/>
     <col customWidth="1" max="6" min="6" width="32.6666666666667"/>
     <col customWidth="1" max="7" min="7" width="38.3333333333333"/>
   </cols>
@@ -1352,16 +1347,16 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="14.7777777777778"/>
-    <col customWidth="1" max="5" min="5" width="17.1111111111111"/>
-    <col customWidth="1" max="6" min="6" width="24.8888888888889"/>
-    <col customWidth="1" max="7" min="7" width="23.8888888888889"/>
+    <col customWidth="1" max="3" min="3" width="29.75"/>
+    <col customWidth="1" max="5" min="5" width="17.1083333333333"/>
+    <col customWidth="1" max="6" min="6" width="53.25"/>
+    <col customWidth="1" max="7" min="7" width="38.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1472,7 +1467,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>{reg_name": "木森666"}</t>
+          <t>{"reg_name": "木森666"}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1626,10 +1621,10 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="17.3333333333333"/>
-    <col customWidth="1" max="6" min="6" width="29.5555555555556"/>
+    <col customWidth="1" max="6" min="6" width="29.5583333333333"/>
     <col customWidth="1" max="7" min="7" width="25.6666666666667"/>
   </cols>
   <sheetData>
@@ -1855,12 +1850,12 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="25.1111111111111"/>
-    <col customWidth="1" max="5" min="5" width="32.2222222222222"/>
-    <col customWidth="1" max="6" min="6" width="14.1111111111111"/>
-    <col customWidth="1" max="7" min="7" width="20.1111111111111"/>
+    <col customWidth="1" max="3" min="3" width="25.1083333333333"/>
+    <col customWidth="1" max="5" min="5" width="32.225"/>
+    <col customWidth="1" max="6" min="6" width="14.1083333333333"/>
+    <col customWidth="1" max="7" min="7" width="20.1083333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1997,15 +1992,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="20.8888888888889"/>
+    <col customWidth="1" max="3" min="3" width="20.8916666666667"/>
     <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="17.5555555555556"/>
-    <col customWidth="1" max="6" min="6" width="46.4444444444444"/>
-    <col customWidth="1" max="7" min="7" width="23.5555555555556"/>
+    <col customWidth="1" max="5" min="5" width="17.5583333333333"/>
+    <col customWidth="1" max="6" min="6" width="46.4416666666667"/>
+    <col customWidth="1" max="7" min="7" width="23.5583333333333"/>
     <col customWidth="1" max="8" min="8" width="6.33333333333333"/>
   </cols>
   <sheetData>
@@ -2603,15 +2598,15 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="9.111111111111111"/>
-    <col customWidth="1" max="3" min="3" width="15.5555555555556"/>
+    <col customWidth="1" max="2" min="2" width="9.108333333333331"/>
+    <col customWidth="1" max="3" min="3" width="15.5583333333333"/>
     <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="18.7777777777778"/>
-    <col customWidth="1" max="6" min="6" width="47.2222222222222"/>
-    <col customWidth="1" max="7" min="7" width="42.4444444444444"/>
+    <col customWidth="1" max="5" min="5" width="18.775"/>
+    <col customWidth="1" max="6" min="6" width="47.225"/>
+    <col customWidth="1" max="7" min="7" width="42.4416666666667"/>
     <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
   </cols>
   <sheetData>
@@ -3251,17 +3246,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="9.555555555555561"/>
-    <col customWidth="1" max="3" min="3" width="19.7777777777778"/>
+    <col customWidth="1" max="2" min="2" width="9.55833333333333"/>
+    <col customWidth="1" max="3" min="3" width="19.775"/>
     <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="10.5555555555556"/>
+    <col customWidth="1" max="5" min="5" width="10.5583333333333"/>
     <col customWidth="1" max="6" min="6" width="44.3333333333333"/>
-    <col customWidth="1" max="7" min="7" width="34.5555555555556"/>
+    <col customWidth="1" max="7" min="7" width="34.5583333333333"/>
     <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
-    <col customWidth="1" max="9" min="9" width="73.4444444444444"/>
+    <col customWidth="1" max="9" min="9" width="73.44166666666671"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3948,15 +3943,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="16.7777777777778"/>
+    <col customWidth="1" max="3" min="3" width="16.775"/>
     <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="15.2222222222222"/>
+    <col customWidth="1" max="5" min="5" width="15.225"/>
     <col customWidth="1" max="6" min="6" width="46.6666666666667"/>
-    <col customWidth="1" max="7" min="7" width="28.5555555555556"/>
+    <col customWidth="1" max="7" min="7" width="28.5583333333333"/>
     <col customWidth="1" max="8" min="8" width="6.33333333333333"/>
     <col customWidth="1" max="9" min="9" width="72.6666666666667"/>
   </cols>
@@ -4470,11 +4465,11 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="15.6666666666667"/>
     <col customWidth="1" max="6" min="6" width="38"/>
-    <col customWidth="1" max="7" min="7" width="38.5555555555556"/>
+    <col customWidth="1" max="7" min="7" width="38.5583333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4787,21 +4782,21 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="16.4444444444444"/>
+    <col customWidth="1" max="3" min="3" width="16.4416666666667"/>
     <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="16.4444444444444"/>
-    <col customWidth="1" max="6" min="6" width="57.5555555555556"/>
-    <col customWidth="1" max="7" min="7" width="29.1111111111111"/>
+    <col customWidth="1" max="5" min="5" width="16.4416666666667"/>
+    <col customWidth="1" max="6" min="6" width="57.5583333333333"/>
+    <col customWidth="1" max="7" min="7" width="29.1083333333333"/>
     <col customWidth="1" max="8" min="8" width="6.33333333333333"/>
-    <col customWidth="1" max="9" min="9" width="9.555555555555561"/>
+    <col customWidth="1" max="9" min="9" width="9.55833333333333"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1">
@@ -5274,9 +5269,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="20.2222222222222"/>
+    <col customWidth="1" max="3" min="3" width="20.225"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5328,11 +5323,11 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="16"/>
-    <col customWidth="1" max="4" min="4" width="15.8888888888889"/>
-    <col customWidth="1" max="6" min="6" width="22.2222222222222"/>
+    <col customWidth="1" max="4" min="4" width="15.8916666666667"/>
+    <col customWidth="1" max="6" min="6" width="22.225"/>
     <col customWidth="1" max="7" min="7" width="24.3333333333333"/>
   </cols>
   <sheetData>

--- a/Data/apicases.xlsx
+++ b/Data/apicases.xlsx
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>未通过</t>
         </is>
       </c>
       <c r="I11" t="n">
